--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/64/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/64/FD_Curve.xlsx
@@ -466,32 +466,32 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8228260000000001</v>
+        <v>1.11364</v>
       </c>
       <c r="C3" t="n">
-        <v>822.826</v>
+        <v>1113.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620039</v>
+        <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.29791</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1297.91</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929937</v>
+        <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.60584</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1605.84</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
@@ -499,32 +499,32 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.91764</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1917.64</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155036</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.24533</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2245.33</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186013</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.44167</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2441.67</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.62614</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>2626.14</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>2.72853</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2728.53</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>2.77976</v>
+        <v>9.983319999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>2779.76</v>
+        <v>9983.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>2.79371</v>
+        <v>10.6668</v>
       </c>
       <c r="C12" t="n">
-        <v>2793.71</v>
+        <v>10666.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>2.79952</v>
+        <v>10.9462</v>
       </c>
       <c r="C13" t="n">
-        <v>2799.52</v>
+        <v>10946.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>2.80312</v>
+        <v>10.9993</v>
       </c>
       <c r="C14" t="n">
-        <v>2803.12</v>
+        <v>10999.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>2.80592</v>
+        <v>10.969</v>
       </c>
       <c r="C15" t="n">
-        <v>2805.92</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>2.80743</v>
+        <v>10.9379</v>
       </c>
       <c r="C16" t="n">
-        <v>2807.43</v>
+        <v>10937.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>2.80856</v>
+        <v>10.9021</v>
       </c>
       <c r="C17" t="n">
-        <v>2808.56</v>
+        <v>10902.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495362</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>2.80908</v>
+        <v>10.8605</v>
       </c>
       <c r="C18" t="n">
-        <v>2809.08</v>
+        <v>10860.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262869999999999</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>2.80923</v>
+        <v>10.8164</v>
       </c>
       <c r="C19" t="n">
-        <v>2809.23</v>
+        <v>10816.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557212</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2.80898</v>
+        <v>10.7704</v>
       </c>
       <c r="C20" t="n">
-        <v>2808.98</v>
+        <v>10770.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588137</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>2.8084</v>
+        <v>10.7221</v>
       </c>
       <c r="C21" t="n">
-        <v>2808.4</v>
+        <v>10722.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619179</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>2.80753</v>
+        <v>10.6716</v>
       </c>
       <c r="C22" t="n">
-        <v>2807.53</v>
+        <v>10671.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>2.8064</v>
+        <v>10.6214</v>
       </c>
       <c r="C23" t="n">
-        <v>2806.4</v>
+        <v>10621.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681528</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>2.80501</v>
+        <v>10.5716</v>
       </c>
       <c r="C24" t="n">
-        <v>2805.01</v>
+        <v>10571.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712701</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>2.8034</v>
+        <v>10.5217</v>
       </c>
       <c r="C25" t="n">
-        <v>2803.4</v>
+        <v>10521.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>2.80156</v>
+        <v>10.4698</v>
       </c>
       <c r="C26" t="n">
-        <v>2801.56</v>
+        <v>10469.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775051</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>2.7995</v>
+        <v>10.4133</v>
       </c>
       <c r="C27" t="n">
-        <v>2799.5</v>
+        <v>10413.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806223</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>2.79724</v>
+        <v>10.3525</v>
       </c>
       <c r="C28" t="n">
-        <v>2797.24</v>
+        <v>10352.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8374</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>2.79481</v>
+        <v>10.2879</v>
       </c>
       <c r="C29" t="n">
-        <v>2794.81</v>
+        <v>10287.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868573</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2.79218</v>
+        <v>10.2194</v>
       </c>
       <c r="C30" t="n">
-        <v>2792.18</v>
+        <v>10219.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>2.78933</v>
+        <v>10.1454</v>
       </c>
       <c r="C31" t="n">
-        <v>2789.33</v>
+        <v>10145.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930922</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>2.78632</v>
+        <v>10.0675</v>
       </c>
       <c r="C32" t="n">
-        <v>2786.32</v>
+        <v>10067.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962095</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>2.78315</v>
+        <v>9.984459999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>2783.15</v>
+        <v>9984.459999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>2.7798</v>
+        <v>9.89766</v>
       </c>
       <c r="C34" t="n">
-        <v>2779.8</v>
+        <v>9897.66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>2.77629</v>
+        <v>9.806780000000002</v>
       </c>
       <c r="C35" t="n">
-        <v>2776.29</v>
+        <v>9806.780000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05562</v>
+        <v>1.05592</v>
       </c>
       <c r="B36" t="n">
-        <v>2.77262</v>
+        <v>9.711530000000002</v>
       </c>
       <c r="C36" t="n">
-        <v>2772.62</v>
+        <v>9711.530000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08659</v>
+        <v>1.08711</v>
       </c>
       <c r="B37" t="n">
-        <v>2.76871</v>
+        <v>8.226330000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>2768.71</v>
+        <v>8226.33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11756</v>
+        <v>1.11783</v>
       </c>
       <c r="B38" t="n">
-        <v>2.76459</v>
+        <v>7.19878</v>
       </c>
       <c r="C38" t="n">
-        <v>2764.59</v>
+        <v>7198.78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14852</v>
+        <v>1.14911</v>
       </c>
       <c r="B39" t="n">
-        <v>2.76023</v>
+        <v>9.21217</v>
       </c>
       <c r="C39" t="n">
-        <v>2760.23</v>
+        <v>9212.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17949</v>
+        <v>1.17999</v>
       </c>
       <c r="B40" t="n">
-        <v>2.75566</v>
+        <v>9.13166</v>
       </c>
       <c r="C40" t="n">
-        <v>2755.66</v>
+        <v>9131.66</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21046</v>
+        <v>1.21103</v>
       </c>
       <c r="B41" t="n">
-        <v>2.75087</v>
+        <v>9.364879999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>2750.87</v>
+        <v>9364.879999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24133</v>
+        <v>1.2418</v>
       </c>
       <c r="B42" t="n">
-        <v>2.74589</v>
+        <v>9.22265</v>
       </c>
       <c r="C42" t="n">
-        <v>2745.89</v>
+        <v>9222.65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27188</v>
+        <v>1.27306</v>
       </c>
       <c r="B43" t="n">
-        <v>2.74076</v>
+        <v>9.009680000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2740.76</v>
+        <v>9009.68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30244</v>
+        <v>1.3044</v>
       </c>
       <c r="B44" t="n">
-        <v>2.73548</v>
+        <v>8.977770000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>2735.48</v>
+        <v>8977.77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33299</v>
+        <v>1.33557</v>
       </c>
       <c r="B45" t="n">
-        <v>2.72999</v>
+        <v>8.940209999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2729.99</v>
+        <v>8940.209999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36355</v>
+        <v>1.36674</v>
       </c>
       <c r="B46" t="n">
-        <v>2.72431</v>
+        <v>8.824479999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>2724.31</v>
+        <v>8824.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3941</v>
+        <v>1.3979</v>
       </c>
       <c r="B47" t="n">
-        <v>2.71843</v>
+        <v>8.676680000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>2718.43</v>
+        <v>8676.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42466</v>
+        <v>1.42906</v>
       </c>
       <c r="B48" t="n">
-        <v>2.71234</v>
+        <v>8.499229999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>2712.34</v>
+        <v>8499.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45521</v>
+        <v>1.46023</v>
       </c>
       <c r="B49" t="n">
-        <v>2.70602</v>
+        <v>8.436620000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>2706.02</v>
+        <v>8436.620000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48577</v>
+        <v>1.49139</v>
       </c>
       <c r="B50" t="n">
-        <v>2.69943</v>
+        <v>8.28126</v>
       </c>
       <c r="C50" t="n">
-        <v>2699.43</v>
+        <v>8281.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51632</v>
+        <v>1.52256</v>
       </c>
       <c r="B51" t="n">
-        <v>2.69256</v>
+        <v>8.148540000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>2692.56</v>
+        <v>8148.54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.54688</v>
+        <v>1.55373</v>
       </c>
       <c r="B52" t="n">
-        <v>2.68533</v>
+        <v>7.94966</v>
       </c>
       <c r="C52" t="n">
-        <v>2685.33</v>
+        <v>7949.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.57743</v>
+        <v>1.58489</v>
       </c>
       <c r="B53" t="n">
-        <v>2.67779</v>
+        <v>7.837479999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>2677.79</v>
+        <v>7837.48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.60799</v>
+        <v>1.61602</v>
       </c>
       <c r="B54" t="n">
-        <v>2.66992</v>
+        <v>7.664300000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>2669.92</v>
+        <v>7664.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.63854</v>
+        <v>1.64682</v>
       </c>
       <c r="B55" t="n">
-        <v>2.66171</v>
+        <v>7.49743</v>
       </c>
       <c r="C55" t="n">
-        <v>2661.71</v>
+        <v>7497.43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6691</v>
+        <v>1.67795</v>
       </c>
       <c r="B56" t="n">
-        <v>2.65314</v>
+        <v>7.331060000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>2653.14</v>
+        <v>7331.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.69965</v>
+        <v>1.70883</v>
       </c>
       <c r="B57" t="n">
-        <v>2.64422</v>
+        <v>7.18843</v>
       </c>
       <c r="C57" t="n">
-        <v>2644.22</v>
+        <v>7188.43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.7305</v>
+        <v>1.74001</v>
       </c>
       <c r="B58" t="n">
-        <v>2.63487</v>
+        <v>7.07889</v>
       </c>
       <c r="C58" t="n">
-        <v>2634.87</v>
+        <v>7078.89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76169</v>
+        <v>1.77078</v>
       </c>
       <c r="B59" t="n">
-        <v>2.62493</v>
+        <v>6.92919</v>
       </c>
       <c r="C59" t="n">
-        <v>2624.93</v>
+        <v>6929.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79249</v>
+        <v>1.802</v>
       </c>
       <c r="B60" t="n">
-        <v>2.61471</v>
+        <v>6.8077</v>
       </c>
       <c r="C60" t="n">
-        <v>2614.71</v>
+        <v>6807.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82363</v>
+        <v>1.83259</v>
       </c>
       <c r="B61" t="n">
-        <v>2.60392</v>
+        <v>6.66077</v>
       </c>
       <c r="C61" t="n">
-        <v>2603.92</v>
+        <v>6660.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85462</v>
+        <v>1.86402</v>
       </c>
       <c r="B62" t="n">
-        <v>2.59272</v>
+        <v>6.56892</v>
       </c>
       <c r="C62" t="n">
-        <v>2592.72</v>
+        <v>6568.92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88555</v>
+        <v>1.89476</v>
       </c>
       <c r="B63" t="n">
-        <v>2.58107</v>
+        <v>6.45108</v>
       </c>
       <c r="C63" t="n">
-        <v>2581.07</v>
+        <v>6451.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.91669</v>
+        <v>1.92594</v>
       </c>
       <c r="B64" t="n">
-        <v>2.56881</v>
+        <v>6.34987</v>
       </c>
       <c r="C64" t="n">
-        <v>2568.81</v>
+        <v>6349.87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.94749</v>
+        <v>1.95699</v>
       </c>
       <c r="B65" t="n">
-        <v>2.55616</v>
+        <v>6.22358</v>
       </c>
       <c r="C65" t="n">
-        <v>2556.16</v>
+        <v>6223.58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.97867</v>
+        <v>1.98757</v>
       </c>
       <c r="B66" t="n">
-        <v>2.54278</v>
+        <v>6.160550000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>2542.78</v>
+        <v>6160.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.00943</v>
+        <v>2.01916</v>
       </c>
       <c r="B67" t="n">
-        <v>2.52899</v>
+        <v>6.04117</v>
       </c>
       <c r="C67" t="n">
-        <v>2528.99</v>
+        <v>6041.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04082</v>
+        <v>2.04998</v>
       </c>
       <c r="B68" t="n">
-        <v>2.51435</v>
+        <v>5.96977</v>
       </c>
       <c r="C68" t="n">
-        <v>2514.35</v>
+        <v>5969.77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07143</v>
+        <v>2.08069</v>
       </c>
       <c r="B69" t="n">
-        <v>2.49933</v>
+        <v>5.87691</v>
       </c>
       <c r="C69" t="n">
-        <v>2499.33</v>
+        <v>5876.91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10271</v>
+        <v>2.11247</v>
       </c>
       <c r="B70" t="n">
-        <v>2.48334</v>
+        <v>5.79318</v>
       </c>
       <c r="C70" t="n">
-        <v>2483.34</v>
+        <v>5793.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13366</v>
+        <v>2.14287</v>
       </c>
       <c r="B71" t="n">
-        <v>2.46689</v>
+        <v>5.72087</v>
       </c>
       <c r="C71" t="n">
-        <v>2466.89</v>
+        <v>5720.87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16466</v>
+        <v>2.17357</v>
       </c>
       <c r="B72" t="n">
-        <v>2.44956</v>
+        <v>5.63791</v>
       </c>
       <c r="C72" t="n">
-        <v>2449.56</v>
+        <v>5637.91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19558</v>
+        <v>2.20429</v>
       </c>
       <c r="B73" t="n">
-        <v>2.43168</v>
+        <v>5.56167</v>
       </c>
       <c r="C73" t="n">
-        <v>2431.68</v>
+        <v>5561.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22674</v>
+        <v>2.23502</v>
       </c>
       <c r="B74" t="n">
-        <v>2.41297</v>
+        <v>5.489470000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>2412.97</v>
+        <v>5489.47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2575</v>
+        <v>2.26593</v>
       </c>
       <c r="B75" t="n">
-        <v>2.39368</v>
+        <v>5.42637</v>
       </c>
       <c r="C75" t="n">
-        <v>2393.68</v>
+        <v>5426.37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.28888</v>
+        <v>2.29702</v>
       </c>
       <c r="B76" t="n">
-        <v>2.3735</v>
+        <v>5.36194</v>
       </c>
       <c r="C76" t="n">
-        <v>2373.5</v>
+        <v>5361.94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.31946</v>
+        <v>2.32788</v>
       </c>
       <c r="B77" t="n">
-        <v>2.35287</v>
+        <v>5.36206</v>
       </c>
       <c r="C77" t="n">
-        <v>2352.87</v>
+        <v>5362.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35077</v>
+        <v>2.36003</v>
       </c>
       <c r="B78" t="n">
-        <v>2.33126</v>
+        <v>5.3356</v>
       </c>
       <c r="C78" t="n">
-        <v>2331.26</v>
+        <v>5335.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38143</v>
+        <v>2.39189</v>
       </c>
       <c r="B79" t="n">
-        <v>2.30945</v>
+        <v>5.31813</v>
       </c>
       <c r="C79" t="n">
-        <v>2309.45</v>
+        <v>5318.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41272</v>
+        <v>2.42219</v>
       </c>
       <c r="B80" t="n">
-        <v>2.28662</v>
+        <v>5.295520000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>2286.62</v>
+        <v>5295.52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44344</v>
+        <v>2.45503</v>
       </c>
       <c r="B81" t="n">
-        <v>2.2638</v>
+        <v>5.30236</v>
       </c>
       <c r="C81" t="n">
-        <v>2263.8</v>
+        <v>5302.36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47327</v>
+        <v>2.4883</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24099</v>
+        <v>5.29276</v>
       </c>
       <c r="C82" t="n">
-        <v>2240.99</v>
+        <v>5292.76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50508</v>
+        <v>2.52158</v>
       </c>
       <c r="B83" t="n">
-        <v>2.21648</v>
+        <v>5.24315</v>
       </c>
       <c r="C83" t="n">
-        <v>2216.48</v>
+        <v>5243.15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53668</v>
+        <v>2.55481</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19146</v>
+        <v>5.20718</v>
       </c>
       <c r="C84" t="n">
-        <v>2191.46</v>
+        <v>5207.18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56797</v>
+        <v>2.58599</v>
       </c>
       <c r="B85" t="n">
-        <v>2.16665</v>
+        <v>5.18775</v>
       </c>
       <c r="C85" t="n">
-        <v>2166.65</v>
+        <v>5187.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59807</v>
+        <v>2.61673</v>
       </c>
       <c r="B86" t="n">
-        <v>2.14212</v>
+        <v>5.15483</v>
       </c>
       <c r="C86" t="n">
-        <v>2142.12</v>
+        <v>5154.83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62844</v>
+        <v>2.64745</v>
       </c>
       <c r="B87" t="n">
-        <v>2.11754</v>
+        <v>5.129930000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>2117.54</v>
+        <v>5129.93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66044</v>
+        <v>2.67817</v>
       </c>
       <c r="B88" t="n">
-        <v>2.09092</v>
+        <v>5.10978</v>
       </c>
       <c r="C88" t="n">
-        <v>2090.92</v>
+        <v>5109.78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69236</v>
+        <v>2.70889</v>
       </c>
       <c r="B89" t="n">
-        <v>2.06469</v>
+        <v>5.0823</v>
       </c>
       <c r="C89" t="n">
-        <v>2064.69</v>
+        <v>5082.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72276</v>
+        <v>2.73961</v>
       </c>
       <c r="B90" t="n">
-        <v>2.03901</v>
+        <v>5.05898</v>
       </c>
       <c r="C90" t="n">
-        <v>2039.01</v>
+        <v>5058.98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75316</v>
+        <v>2.77033</v>
       </c>
       <c r="B91" t="n">
-        <v>2.01369</v>
+        <v>5.04457</v>
       </c>
       <c r="C91" t="n">
-        <v>2013.69</v>
+        <v>5044.57</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78279</v>
+        <v>2.79905</v>
       </c>
       <c r="B92" t="n">
-        <v>1.98901</v>
+        <v>5.01038</v>
       </c>
       <c r="C92" t="n">
-        <v>1989.01</v>
+        <v>5010.38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81379</v>
+        <v>2.82725</v>
       </c>
       <c r="B93" t="n">
-        <v>1.96286</v>
+        <v>4.9757</v>
       </c>
       <c r="C93" t="n">
-        <v>1962.86</v>
+        <v>4975.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8467</v>
+        <v>2.85542</v>
       </c>
       <c r="B94" t="n">
-        <v>1.93561</v>
+        <v>4.96894</v>
       </c>
       <c r="C94" t="n">
-        <v>1935.61</v>
+        <v>4968.94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8782</v>
+        <v>2.88358</v>
       </c>
       <c r="B95" t="n">
-        <v>1.90901</v>
+        <v>4.92362</v>
       </c>
       <c r="C95" t="n">
-        <v>1909.01</v>
+        <v>4923.62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90929</v>
+        <v>2.91174</v>
       </c>
       <c r="B96" t="n">
-        <v>1.88298</v>
+        <v>4.912430000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>1882.98</v>
+        <v>4912.43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94037</v>
+        <v>2.94315</v>
       </c>
       <c r="B97" t="n">
-        <v>1.85764</v>
+        <v>4.89271</v>
       </c>
       <c r="C97" t="n">
-        <v>1857.64</v>
+        <v>4892.71</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97002</v>
+        <v>2.97814</v>
       </c>
       <c r="B98" t="n">
-        <v>1.83288</v>
+        <v>4.8417</v>
       </c>
       <c r="C98" t="n">
-        <v>1832.88</v>
+        <v>4841.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.99928</v>
+        <v>3.01329</v>
       </c>
       <c r="B99" t="n">
-        <v>1.80867</v>
+        <v>4.83254</v>
       </c>
       <c r="C99" t="n">
-        <v>1808.67</v>
+        <v>4832.54</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.02941</v>
+        <v>3.04754</v>
       </c>
       <c r="B100" t="n">
-        <v>1.78419</v>
+        <v>4.78453</v>
       </c>
       <c r="C100" t="n">
-        <v>1784.19</v>
+        <v>4784.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06268</v>
+        <v>3.07963</v>
       </c>
       <c r="B101" t="n">
-        <v>1.75735</v>
+        <v>4.767939999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>1757.35</v>
+        <v>4767.94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09468</v>
+        <v>3.11165</v>
       </c>
       <c r="B102" t="n">
-        <v>1.73095</v>
+        <v>4.74412</v>
       </c>
       <c r="C102" t="n">
-        <v>1730.95</v>
+        <v>4744.12</v>
       </c>
     </row>
   </sheetData>
